--- a/tests/indicators/e-k/Ichimoku/Ichimoku.Calc.xlsx
+++ b/tests/indicators/e-k/Ichimoku/Ichimoku.Calc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,14 +9,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daves\Repos\Stock.Indicators\tests\indicators\e-k\Ichimoku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F85C51-CE03-4982-907A-544C830DCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92171D49-6783-4B14-8A4A-B18EEEF63142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19680" yWindow="0" windowWidth="19065" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ichimoku" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -637,10 +647,6 @@
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -739,6 +745,10 @@
       </font>
       <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.0000_);_(&quot;$&quot;* \(#,##0.0000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1076,12 +1086,12 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7DAA7073-C2D2-4448-9053-AD7D84C4E878}" name="Table2" displayName="Table2" ref="N1:S503" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" dataCellStyle="Currency">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{25DC9493-B036-4DBD-97BC-42FE54A06E1E}" name="id" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{C6D09399-1541-4FA4-92BF-866AEC9F0D02}" name="tenkan" dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{2E445511-834C-4DBB-A0D5-52FFCD14BEB8}" name="kijun" dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{BACC9CC8-4E8E-4745-852B-D03F2C499C5F}" name="senkouA" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{AB1755B9-24C9-48A3-ACCD-6F04C55BAE40}" name="senkouB" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{9204931A-F9FC-4BEA-912C-8AE3A5DC4550}" name="chikou" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{25DC9493-B036-4DBD-97BC-42FE54A06E1E}" name="id" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{C6D09399-1541-4FA4-92BF-866AEC9F0D02}" name="tenkan" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{2E445511-834C-4DBB-A0D5-52FFCD14BEB8}" name="kijun" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{BACC9CC8-4E8E-4745-852B-D03F2C499C5F}" name="senkouA" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{AB1755B9-24C9-48A3-ACCD-6F04C55BAE40}" name="senkouB" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{9204931A-F9FC-4BEA-912C-8AE3A5DC4550}" name="chikou" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1392,7 +1402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
     <col min="3" max="6" width="10.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
